--- a/biology/Zoologie/Argyrogrammana/Argyrogrammana.xlsx
+++ b/biology/Zoologie/Argyrogrammana/Argyrogrammana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argyrogrammana est un genre néotropical de lépidoptères (papillons) de la famille des Riodinidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Argyrogrammana a été décrit par Embrik Strand en 1932.
 </t>
@@ -542,7 +556,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Argyrogrammana sont des papillons de taille petite à moyenne.
 </t>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils résident tous en Amérique en zone tropicale.
 </t>
@@ -604,12 +622,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Argyrogrammana alstonii (Smart, 1979) — présent en Guyane et à Trinité-et-Tobago
-Argyrogrammana amalfreda (Staudinger, [1887]) — présent au Pérou
+Argyrogrammana amalfreda (Staudinger, ) — présent au Pérou
 Argyrogrammana aparamilla Hall &amp; Willmott, 1995 — présent en Équateur
-Argyrogrammana barine (Staudinger, [1887]) — présent au Costa Rica, en Colombie et en Équateur
+Argyrogrammana barine (Staudinger, ) — présent au Costa Rica, en Colombie et en Équateur
 Argyrogrammana bonita Hall &amp; Willmott, 1995 — présent en Équateur
 Argyrogrammana caelestina Hall &amp; Willmott, 1995 — présent en Colombie, en Équateur et au Pérou
 Argyrogrammana caesarion Lathy, 1958 — présent au Brésil
@@ -622,7 +642,7 @@
 Argyrogrammana leptographia (Stichel, 1911) — présent au Costa Rica, en Équateur et en Colombie
 Argyrogrammana natalita Hall &amp; Willmott, 1995 — présent en Équateur
 Argyrogrammana nurtia (Stichel, 1911) — présent en Guyane, en Bolivie, et au Pérou
-Argyrogrammana occidentalis (Godman &amp; Salvin, [1886]) — présent en Guyane, en Colombie et à Trinité-et-Tobago
+Argyrogrammana occidentalis (Godman &amp; Salvin, ) — présent en Guyane, en Colombie et à Trinité-et-Tobago
 Argyrogrammana pacsa Hall &amp; Willmott, 1998 — présent en Équateur
 Argyrogrammana pastaza Hall &amp; Willmott, 1996 — présent en Équateur et au Pérou
 Argyrogrammana physis (Stichel, 1911) — présent en Guyane, en Colombie, en Équateur, au Brésil et au Pérou
@@ -630,9 +650,9 @@
 Argyrogrammana praestigiosa (Stichel, 1929) — présent en Guyane
 Argyrogrammana pulchra (Talbot, 1929) — présent en Colombie
 Argyrogrammana rameli (Stichle, 1930) — présent en Guyane, en Équateur, au Pérou et au Brésil
-Argyrogrammana saphirina (Staudinger, [1887]) — présent à Panama et en Équateur
+Argyrogrammana saphirina (Staudinger, ) — présent à Panama et en Équateur
 Argyrogrammana sebastiani Brévignon, 1995 — présent en Guyane
-Argyrogrammana stilbe (Godart, [1824]) — présent au Mexique, en Guyane, en Colombie, en Bolivie, en Équateur et au Brésil
+Argyrogrammana stilbe (Godart, ) — présent au Mexique, en Guyane, en Colombie, en Bolivie, en Équateur et au Brésil
 Argyrogrammana sticheli (Talbot, 1929) — présent en Guyane
 Argyrogrammana subota (Hewitson, 1877) — présent en Équateur
 Argyrogrammana sublimis Brévignon &amp; Gallard, 1995 — présent en Guyane, au Costa Rica, en Équateur et au Brésil
